--- a/biology/Neurosciences/Lobe_(cerveau)/Lobe_(cerveau).xlsx
+++ b/biology/Neurosciences/Lobe_(cerveau)/Lobe_(cerveau).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En anatomie, chacun des deux hémisphères du cerveau est divisée en plusieurs lobes dont quatre sont dits externes et deux sont dits internes.
 </t>
@@ -511,7 +523,9 @@
           <t>Chez les mammifères</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les quatre lobes externes, situés immédiatement sous les os du crâne sont, d'avant en arrière : 
 Le lobe frontal, situé juste derrière le front au-dessus des yeux (en bleu sur la figure) ;
@@ -550,9 +564,11 @@
           <t>Chez les oiseaux et les reptiles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cerveaux des reptiles et des oiseaux ont des structures assez semblables bien que celui des oiseaux soit en général plus volumineux[1]. Toutefois, les oiseaux ont de plus grands lobes optiques et de plus petits lobes ou bulbes olfactifs.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cerveaux des reptiles et des oiseaux ont des structures assez semblables bien que celui des oiseaux soit en général plus volumineux. Toutefois, les oiseaux ont de plus grands lobes optiques et de plus petits lobes ou bulbes olfactifs.
 </t>
         </is>
       </c>
